--- a/Task1.xlsx
+++ b/Task1.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>task1</t>
+    <t>task444</t>
   </si>
   <si>
     <t>ID</t>
@@ -30,12 +30,6 @@
   </si>
   <si>
     <t>Action</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
 </sst>
 </file>
@@ -72,27 +66,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.8046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.03515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="2.9453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.26953125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="14.89453125" customWidth="true" bestFit="true"/>
@@ -119,40 +107,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Task1.xlsx
+++ b/Task1.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>task444</t>
+    <t>тест2</t>
   </si>
   <si>
     <t>ID</t>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Action</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -66,21 +69,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.03515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="2.9453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.26953125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="14.89453125" customWidth="true" bestFit="true"/>
@@ -107,6 +113,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="B2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Task1.xlsx
+++ b/Task1.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>тест2</t>
+    <t>testttttt</t>
   </si>
   <si>
     <t>ID</t>
@@ -32,7 +32,7 @@
     <t>Action</t>
   </si>
   <si>
-    <t>+</t>
+    <t>X^y</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.15234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="2.9453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.26953125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="14.89453125" customWidth="true" bestFit="true"/>
@@ -118,13 +118,13 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>6</v>
